--- a/4/result.xlsx
+++ b/4/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>z</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -531,6 +537,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -576,8 +668,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -648,33 +755,9 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8032175589701773E-2"/>
-          <c:y val="2.4324937627761476E-2"/>
-          <c:w val="0.90773963934119883"/>
-          <c:h val="0.85588772275182956"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
+      <c:layout/>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -684,161 +767,167 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>firstAlgo!$A$1:$A$24</c:f>
+              <c:f>firstAlgo!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>l</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>h</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>k</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>z</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>p</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>z</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>v</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>h</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>s</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>y</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>u</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>m</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>j</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>k</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>t</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>d</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>w</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>n</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>i</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>r</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>q</c:v>
+                <c:pt idx="24">
+                  <c:v>x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>firstAlgo!$B$1:$B$24</c:f>
+              <c:f>firstAlgo!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>427</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,13 +942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="243319808"/>
-        <c:axId val="267340032"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="189079552"/>
+        <c:axId val="241308160"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="243319808"/>
+        <c:axId val="189079552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267340032"/>
+        <c:crossAx val="241308160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -876,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267340032"/>
+        <c:axId val="241308160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,16 +974,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243319808"/>
+        <c:crossAx val="189079552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -924,23 +1006,9 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -950,161 +1018,167 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>firstAlgo!$A$35:$A$58</c:f>
+              <c:f>firstAlgo!$C$2:$C$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>h</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>z</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>s</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>q</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>t</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>i</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>l</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>r</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>n</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>d</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>h</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>u</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>m</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>w</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>p</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>x</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>y</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>v</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>k</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>firstAlgo!$B$35:$B$58</c:f>
+              <c:f>firstAlgo!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>427</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +1193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="241730048"/>
-        <c:axId val="329333504"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="153602560"/>
+        <c:axId val="259611968"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="241730048"/>
+        <c:axId val="153602560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329333504"/>
+        <c:crossAx val="259611968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1142,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329333504"/>
+        <c:axId val="259611968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,16 +1225,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241730048"/>
+        <c:crossAx val="153602560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1180,19 +1247,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1210,19 +1277,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1527,403 +1594,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8">
+        <v>474</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="8">
+        <v>359</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>282</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>274</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <v>239</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D7" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>218</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>210</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>121</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8">
+        <v>116</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <v>110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8">
+        <v>109</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B21" s="8">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B23" s="8">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B24" s="8">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D25" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D26" s="6">
         <v>3</v>
       </c>
-      <c r="B50">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A35:B58">
-    <sortCondition descending="1" ref="B35"/>
+  <sortState ref="C2:D26">
+    <sortCondition descending="1" ref="D2"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>